--- a/Excel_Exercice01_MiseEnFormeEtGraphique.xlsx
+++ b/Excel_Exercice01_MiseEnFormeEtGraphique.xlsx
@@ -2,22 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="123820"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\repo lab OG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\repo lab OG\C13---Outils-de-gestion-et-de-soutien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77F4828-7EA6-4589-987F-E422167B902D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE35E03E-34F3-4E7C-BB32-D529F0900F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="9970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Résultat attendu" sheetId="1" r:id="rId1"/>
     <sheet name="Données brutes" sheetId="2" r:id="rId2"/>
     <sheet name="Objectifs" sheetId="3" r:id="rId3"/>
+    <sheet name="Résultat Obtenue" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId7"/>
+  </pivotCaches>
   <webPublishing codePage="1252"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
   <si>
     <t>Total</t>
   </si>
@@ -127,6 +133,27 @@
   <si>
     <t>Courbes avec marques</t>
   </si>
+  <si>
+    <t>Étiquettes de lignes</t>
+  </si>
+  <si>
+    <t>Total général</t>
+  </si>
+  <si>
+    <t>Somme de Trimestre 1</t>
+  </si>
+  <si>
+    <t>Somme de Trimestre 2</t>
+  </si>
+  <si>
+    <t>Somme de Trimestre 3</t>
+  </si>
+  <si>
+    <t>Somme de Trimestre 4</t>
+  </si>
+  <si>
+    <t>Somme de Total</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +164,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;$&quot;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +300,21 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -750,7 +792,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -987,6 +1029,17 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -2165,6 +2218,3055 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Courantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Assurances</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fournitures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$C$9:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1988.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7832.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2337.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4336.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AFB-4918-9F55-BB5AD4670BC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Courantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Assurances</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fournitures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2897.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8309.0499999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11299.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2137.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1790.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AFB-4918-9F55-BB5AD4670BC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Courantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Assurances</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fournitures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$E$9:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5223.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4287.9799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8264.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1237.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1206.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2AFB-4918-9F55-BB5AD4670BC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Courantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Assurances</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fournitures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$F$9:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7996.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9352.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13226.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3237.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1628.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2AFB-4918-9F55-BB5AD4670BC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1393760255"/>
+        <c:axId val="1393760671"/>
+        <c:axId val="1731068655"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1393760255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1393760671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1393760671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1393760255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1731068655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1393760671"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$18:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Résidentiel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Automobile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$C$18:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12462.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2533.2399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8755.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A752-4B82-B7EC-A29B7EC88D12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$18:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Résidentiel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Automobile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$D$18:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8256.9699999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5855.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7562.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A752-4B82-B7EC-A29B7EC88D12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$18:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Résidentiel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Automobile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$E$18:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10884.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8525.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5221.5600000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A752-4B82-B7EC-A29B7EC88D12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$18:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Résidentiel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Automobile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$F$18:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18995.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11253.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3256.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A752-4B82-B7EC-A29B7EC88D12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1396825903"/>
+        <c:axId val="1396890111"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1396825903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1396890111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1396890111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1396825903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$C$24:$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trimestre 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trimestre 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Trimestre 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$C$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-2040.6999999999971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4760.260000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4410.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1936.1299999999974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1930-42AE-9D82-4728F1EB9E0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1655013791"/>
+        <c:axId val="1655010047"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1655013791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655010047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1655010047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655013791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2276,6 +5378,837 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graphique 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8B9403-D9AF-1719-5788-706C7ED9AAC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Graphique 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E602FCD2-D5A6-D30B-0DC6-7A95181B5FEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1031875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Graphique 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB18D96-2D2D-D875-66BA-6232CAB11195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44890.552890277781" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{7CD45BE9-0366-4458-8E17-CEADEF411987}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B8:G14" sheet="Données brutes"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Ventes" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Location"/>
+        <s v="Courantes"/>
+        <s v="Paie"/>
+        <s v="Assurances"/>
+        <s v="Fournitures"/>
+        <s v="Total"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Trimestre 1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1988.5" maxValue="21710.65"/>
+    </cacheField>
+    <cacheField name="Trimestre 2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1790.84" maxValue="26434.920000000002"/>
+    </cacheField>
+    <cacheField name="Trimestre 3" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1206.77" maxValue="20220.620000000003"/>
+    </cacheField>
+    <cacheField name="Trimestre 4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1628.13" maxValue="35441.409999999996"/>
+    </cacheField>
+    <cacheField name="Total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8951.24" maxValue="103807.6"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44890.553174421293" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="4" xr:uid="{CA690260-E1EB-435C-B7B2-E9139F736A07}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B17:G21" sheet="Données brutes"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Dépenses" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Résidentiel"/>
+        <s v="Automobile"/>
+        <s v="Vie"/>
+        <s v="Total"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Trimestre 1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2533.2399999999998" maxValue="23751.35"/>
+    </cacheField>
+    <cacheField name="Trimestre 2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5855.47" maxValue="21674.66"/>
+    </cacheField>
+    <cacheField name="Trimestre 3" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5221.5600000000004" maxValue="24631.350000000002"/>
+    </cacheField>
+    <cacheField name="Trimestre 4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3256.47" maxValue="33505.279999999999"/>
+    </cacheField>
+    <cacheField name="Total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="24795.49" maxValue="103562.64"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44890.553300115738" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{F342EDAA-88A8-4284-800C-7C241EAB83A5}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B24:G25" sheet="Données brutes"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Net" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Total"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Trimestre 1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2040.6999999999971" maxValue="-2040.6999999999971"/>
+    </cacheField>
+    <cacheField name="Trimestre 2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4760.260000000002" maxValue="4760.260000000002"/>
+    </cacheField>
+    <cacheField name="Trimestre 3" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4410.7299999999996" maxValue="-4410.7299999999996"/>
+    </cacheField>
+    <cacheField name="Trimestre 4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1936.1299999999974" maxValue="1936.1299999999974"/>
+    </cacheField>
+    <cacheField name="Total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="244.96" maxValue="244.96"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+  <r>
+    <x v="0"/>
+    <n v="1988.5"/>
+    <n v="2897.35"/>
+    <n v="5223.25"/>
+    <n v="7996.36"/>
+    <n v="18105.46"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="5215"/>
+    <n v="8309.0499999999993"/>
+    <n v="4287.9799999999996"/>
+    <n v="9352.64"/>
+    <n v="27164.67"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7832.97"/>
+    <n v="11299.87"/>
+    <n v="8264.81"/>
+    <n v="13226.47"/>
+    <n v="40624.120000000003"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2337.81"/>
+    <n v="2137.81"/>
+    <n v="1237.81"/>
+    <n v="3237.81"/>
+    <n v="8951.24"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4336.37"/>
+    <n v="1790.84"/>
+    <n v="1206.77"/>
+    <n v="1628.13"/>
+    <n v="8962.11"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="21710.65"/>
+    <n v="26434.920000000002"/>
+    <n v="20220.620000000003"/>
+    <n v="35441.409999999996"/>
+    <n v="103807.6"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
+  <r>
+    <x v="0"/>
+    <n v="12462.87"/>
+    <n v="8256.9699999999993"/>
+    <n v="10884.65"/>
+    <n v="18995.599999999999"/>
+    <n v="50600.09"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2533.2399999999998"/>
+    <n v="5855.47"/>
+    <n v="8525.14"/>
+    <n v="11253.21"/>
+    <n v="28167.059999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8755.24"/>
+    <n v="7562.22"/>
+    <n v="5221.5600000000004"/>
+    <n v="3256.47"/>
+    <n v="24795.49"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="23751.35"/>
+    <n v="21674.66"/>
+    <n v="24631.350000000002"/>
+    <n v="33505.279999999999"/>
+    <n v="103562.64"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <x v="0"/>
+    <n v="-2040.6999999999971"/>
+    <n v="4760.260000000002"/>
+    <n v="-4410.7299999999996"/>
+    <n v="1936.1299999999974"/>
+    <n v="244.96"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDEC5865-4DA1-4D5C-A852-85F7BAC32AD9}" name="Tableau croisé dynamique3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B17:G19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Somme de Trimestre 1" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Trimestre 2" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Trimestre 3" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Trimestre 4" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Total" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79789EE9-0E26-4CF9-A033-86CAC670344D}" name="Tableau croisé dynamique2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B11:G16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Somme de Trimestre 1" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Trimestre 2" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Trimestre 3" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Trimestre 4" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Total" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{46800AEB-89AF-4544-942D-4BC6AC1EEAA7}" name="Tableau croisé dynamique1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="B3:G10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Somme de Trimestre 1" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Trimestre 2" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Trimestre 3" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Trimestre 4" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Total" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="30">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3045,7 +6978,7 @@
   <dimension ref="B2:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -3401,7 +7334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
@@ -3495,4 +7428,412 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DC3222-9268-4458-8BD2-A01EEBC24E49}">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="26" x14ac:dyDescent="0.6">
+      <c r="A1" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B3" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="67">
+        <v>2337.81</v>
+      </c>
+      <c r="D4" s="67">
+        <v>2137.81</v>
+      </c>
+      <c r="E4" s="67">
+        <v>1237.81</v>
+      </c>
+      <c r="F4" s="67">
+        <v>3237.81</v>
+      </c>
+      <c r="G4" s="67">
+        <v>8951.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="67">
+        <v>5215</v>
+      </c>
+      <c r="D5" s="67">
+        <v>8309.0499999999993</v>
+      </c>
+      <c r="E5" s="67">
+        <v>4287.9799999999996</v>
+      </c>
+      <c r="F5" s="67">
+        <v>9352.64</v>
+      </c>
+      <c r="G5" s="67">
+        <v>27164.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B6" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="67">
+        <v>4336.37</v>
+      </c>
+      <c r="D6" s="67">
+        <v>1790.84</v>
+      </c>
+      <c r="E6" s="67">
+        <v>1206.77</v>
+      </c>
+      <c r="F6" s="67">
+        <v>1628.13</v>
+      </c>
+      <c r="G6" s="67">
+        <v>8962.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="67">
+        <v>1988.5</v>
+      </c>
+      <c r="D7" s="67">
+        <v>2897.35</v>
+      </c>
+      <c r="E7" s="67">
+        <v>5223.25</v>
+      </c>
+      <c r="F7" s="67">
+        <v>7996.36</v>
+      </c>
+      <c r="G7" s="67">
+        <v>18105.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="67">
+        <v>7832.97</v>
+      </c>
+      <c r="D8" s="67">
+        <v>11299.87</v>
+      </c>
+      <c r="E8" s="67">
+        <v>8264.81</v>
+      </c>
+      <c r="F8" s="67">
+        <v>13226.47</v>
+      </c>
+      <c r="G8" s="67">
+        <v>40624.120000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="67">
+        <v>21710.65</v>
+      </c>
+      <c r="D9" s="67">
+        <v>26434.920000000002</v>
+      </c>
+      <c r="E9" s="67">
+        <v>20220.620000000003</v>
+      </c>
+      <c r="F9" s="67">
+        <v>35441.409999999996</v>
+      </c>
+      <c r="G9" s="67">
+        <v>103807.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="67">
+        <v>43421.3</v>
+      </c>
+      <c r="D10" s="67">
+        <v>52869.84</v>
+      </c>
+      <c r="E10" s="67">
+        <v>40441.240000000005</v>
+      </c>
+      <c r="F10" s="67">
+        <v>70882.819999999992</v>
+      </c>
+      <c r="G10" s="67">
+        <v>207615.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="67">
+        <v>2533.2399999999998</v>
+      </c>
+      <c r="D12" s="67">
+        <v>5855.47</v>
+      </c>
+      <c r="E12" s="67">
+        <v>8525.14</v>
+      </c>
+      <c r="F12" s="67">
+        <v>11253.21</v>
+      </c>
+      <c r="G12" s="67">
+        <v>28167.059999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="67">
+        <v>12462.87</v>
+      </c>
+      <c r="D13" s="67">
+        <v>8256.9699999999993</v>
+      </c>
+      <c r="E13" s="67">
+        <v>10884.65</v>
+      </c>
+      <c r="F13" s="67">
+        <v>18995.599999999999</v>
+      </c>
+      <c r="G13" s="67">
+        <v>50600.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="67">
+        <v>23751.35</v>
+      </c>
+      <c r="D14" s="67">
+        <v>21674.66</v>
+      </c>
+      <c r="E14" s="67">
+        <v>24631.350000000002</v>
+      </c>
+      <c r="F14" s="67">
+        <v>33505.279999999999</v>
+      </c>
+      <c r="G14" s="67">
+        <v>103562.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="67">
+        <v>8755.24</v>
+      </c>
+      <c r="D15" s="67">
+        <v>7562.22</v>
+      </c>
+      <c r="E15" s="67">
+        <v>5221.5600000000004</v>
+      </c>
+      <c r="F15" s="67">
+        <v>3256.47</v>
+      </c>
+      <c r="G15" s="67">
+        <v>24795.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="67">
+        <v>47502.7</v>
+      </c>
+      <c r="D16" s="67">
+        <v>43349.32</v>
+      </c>
+      <c r="E16" s="67">
+        <v>49262.7</v>
+      </c>
+      <c r="F16" s="67">
+        <v>67010.559999999998</v>
+      </c>
+      <c r="G16" s="67">
+        <v>207125.27999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="67">
+        <v>-2040.6999999999971</v>
+      </c>
+      <c r="D18" s="67">
+        <v>4760.260000000002</v>
+      </c>
+      <c r="E18" s="67">
+        <v>-4410.7299999999996</v>
+      </c>
+      <c r="F18" s="67">
+        <v>1936.1299999999974</v>
+      </c>
+      <c r="G18" s="67">
+        <v>244.96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="67">
+        <v>-2040.6999999999971</v>
+      </c>
+      <c r="D19" s="67">
+        <v>4760.260000000002</v>
+      </c>
+      <c r="E19" s="67">
+        <v>-4410.7299999999996</v>
+      </c>
+      <c r="F19" s="67">
+        <v>1936.1299999999974</v>
+      </c>
+      <c r="G19" s="67">
+        <v>244.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>
--- a/Excel_Exercice01_MiseEnFormeEtGraphique.xlsx
+++ b/Excel_Exercice01_MiseEnFormeEtGraphique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\repo lab OG\C13---Outils-de-gestion-et-de-soutien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE35E03E-34F3-4E7C-BB32-D529F0900F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B31C70C-7A1D-4CD0-858F-BBBAAD6FB1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
-    <pivotCache cacheId="5" r:id="rId6"/>
-    <pivotCache cacheId="8" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
   <webPublishing codePage="1252"/>
   <extLst>
@@ -792,7 +792,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1010,6 +1010,10 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1035,11 +1039,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -2233,6 +2232,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ventes 2009</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2264,7 +2292,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="20"/>
       <c:rotY val="20"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="1"/>
@@ -2324,7 +2352,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2402,7 +2432,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2480,7 +2513,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2558,7 +2594,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2683,6 +2722,8 @@
         <c:axId val="1393760671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2700,7 +2741,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00\ &quot;$&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2734,6 +2775,7 @@
         <c:crossAx val="1393760255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5000"/>
       </c:valAx>
       <c:serAx>
         <c:axId val="1731068655"/>
@@ -2774,6 +2816,7 @@
         </c:txPr>
         <c:crossAx val="1393760671"/>
         <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
       </c:serAx>
       <c:spPr>
         <a:noFill/>
@@ -2800,14 +2843,18 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx2"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT w="0"/>
+    </a:sp3d>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -2842,6 +2889,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Dépenses</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 2009</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2857,10 +2943,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2875,7 +2958,7 @@
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
+      <c:depthPercent val="120"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
@@ -2933,7 +3016,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2977,6 +3062,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:shape val="cylinder"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A752-4B82-B7EC-A29B7EC88D12}"/>
@@ -2999,7 +3085,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3043,6 +3132,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:shape val="cylinder"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A752-4B82-B7EC-A29B7EC88D12}"/>
@@ -3065,7 +3155,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3109,6 +3202,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:shape val="cylinder"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A752-4B82-B7EC-A29B7EC88D12}"/>
@@ -3131,7 +3225,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3175,6 +3272,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:shape val="cylinder"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A752-4B82-B7EC-A29B7EC88D12}"/>
@@ -3261,7 +3359,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00\ &quot;$&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3295,6 +3393,7 @@
         <c:crossAx val="1396825903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3321,10 +3420,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent2"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3363,6 +3459,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Croissances 2009</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3378,10 +3500,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3415,22 +3534,22 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3507,7 +3626,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3569,7 +3688,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00\ &quot;$&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3629,10 +3748,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent4"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -5385,13 +5501,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
+      <xdr:colOff>415924</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298449</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -5710,7 +5826,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDEC5865-4DA1-4D5C-A852-85F7BAC32AD9}" name="Tableau croisé dynamique3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDEC5865-4DA1-4D5C-A852-85F7BAC32AD9}" name="Tableau croisé dynamique3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B17:G19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5776,7 +5892,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79789EE9-0E26-4CF9-A033-86CAC670344D}" name="Tableau croisé dynamique2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79789EE9-0E26-4CF9-A033-86CAC670344D}" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B11:G16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5854,7 +5970,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{46800AEB-89AF-4544-942D-4BC6AC1EEAA7}" name="Tableau croisé dynamique1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{46800AEB-89AF-4544-942D-4BC6AC1EEAA7}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="B3:G10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -6549,24 +6665,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
     </row>
     <row r="3" spans="2:17" ht="3.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
@@ -6577,24 +6693,24 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="2:17" ht="3.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
@@ -6991,14 +7107,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="22" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -7350,15 +7466,15 @@
   <sheetData>
     <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="53" t="s">
@@ -7366,25 +7482,25 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="61"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="54" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="61"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="61"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="61"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="56" t="s">
         <v>27</v>
       </c>
@@ -7393,7 +7509,7 @@
       <c r="C9" s="52"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="63" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="53" t="s">
@@ -7401,19 +7517,19 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="61"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="61"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="61"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="57" t="s">
         <v>23</v>
       </c>
@@ -7434,8 +7550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DC3222-9268-4458-8BD2-A01EEBC24E49}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7447,49 +7563,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="s">
@@ -7509,147 +7625,147 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4">
         <v>2337.81</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4">
         <v>2137.81</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4">
         <v>1237.81</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4">
         <v>3237.81</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4">
         <v>8951.24</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5">
         <v>5215</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5">
         <v>8309.0499999999993</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5">
         <v>4287.9799999999996</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5">
         <v>9352.64</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5">
         <v>27164.67</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6">
         <v>4336.37</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6">
         <v>1790.84</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6">
         <v>1206.77</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6">
         <v>1628.13</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6">
         <v>8962.11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7">
         <v>1988.5</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7">
         <v>2897.35</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7">
         <v>5223.25</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7">
         <v>7996.36</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7">
         <v>18105.46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8">
         <v>7832.97</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8">
         <v>11299.87</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8">
         <v>8264.81</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8">
         <v>13226.47</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8">
         <v>40624.120000000003</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9">
         <v>21710.65</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9">
         <v>26434.920000000002</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9">
         <v>20220.620000000003</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9">
         <v>35441.409999999996</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9">
         <v>103807.6</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10">
         <v>43421.3</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10">
         <v>52869.84</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10">
         <v>40441.240000000005</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10">
         <v>70882.819999999992</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10">
         <v>207615.2</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
@@ -7669,107 +7785,107 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12">
         <v>2533.2399999999998</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12">
         <v>5855.47</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12">
         <v>8525.14</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12">
         <v>11253.21</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12">
         <v>28167.059999999998</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13">
         <v>12462.87</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13">
         <v>8256.9699999999993</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13">
         <v>10884.65</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13">
         <v>18995.599999999999</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13">
         <v>50600.09</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14">
         <v>23751.35</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14">
         <v>21674.66</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14">
         <v>24631.350000000002</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14">
         <v>33505.279999999999</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14">
         <v>103562.64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15">
         <v>8755.24</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15">
         <v>7562.22</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15">
         <v>5221.5600000000004</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15">
         <v>3256.47</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15">
         <v>24795.49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16">
         <v>47502.7</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16">
         <v>43349.32</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16">
         <v>49262.7</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16">
         <v>67010.559999999998</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16">
         <v>207125.27999999997</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
@@ -7789,42 +7905,42 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18">
         <v>-2040.6999999999971</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18">
         <v>4760.260000000002</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18">
         <v>-4410.7299999999996</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18">
         <v>1936.1299999999974</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18">
         <v>244.96</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19">
         <v>-2040.6999999999971</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19">
         <v>4760.260000000002</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19">
         <v>-4410.7299999999996</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19">
         <v>1936.1299999999974</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19">
         <v>244.96</v>
       </c>
     </row>

--- a/Excel_Exercice01_MiseEnFormeEtGraphique.xlsx
+++ b/Excel_Exercice01_MiseEnFormeEtGraphique.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\repo lab OG\C13---Outils-de-gestion-et-de-soutien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B31C70C-7A1D-4CD0-858F-BBBAAD6FB1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3D73E7-F597-4BC8-83EC-8D8876C4AB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>Courbes avec marques</t>
   </si>
   <si>
-    <t>Étiquettes de lignes</t>
-  </si>
-  <si>
     <t>Total général</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   <si>
     <t>Somme de Total</t>
   </si>
+  <si>
+    <t>ventes</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +164,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;$&quot;"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +316,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +385,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -786,13 +817,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1010,10 +1074,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1039,13 +1099,267 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="38">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1053,10 +1367,49 @@
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC0000"/>
       <color rgb="FFECF2F8"/>
       <color rgb="FFEBE3E3"/>
     </mruColors>
@@ -5573,15 +5926,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1031875</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5826,8 +6179,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDEC5865-4DA1-4D5C-A852-85F7BAC32AD9}" name="Tableau croisé dynamique3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B17:G19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDEC5865-4DA1-4D5C-A852-85F7BAC32AD9}" name="Tableau croisé dynamique3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Net">
+  <location ref="B19:G21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="2">
@@ -5879,6 +6232,86 @@
     <dataField name="Somme de Trimestre 4" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Somme de Total" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="12">
+    <format dxfId="21">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5892,8 +6325,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79789EE9-0E26-4CF9-A033-86CAC670344D}" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B11:G16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79789EE9-0E26-4CF9-A033-86CAC670344D}" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Dépenses">
+  <location ref="B12:G17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
@@ -5957,6 +6390,86 @@
     <dataField name="Somme de Trimestre 4" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Somme de Total" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="12">
+    <format dxfId="27">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5970,7 +6483,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{46800AEB-89AF-4544-942D-4BC6AC1EEAA7}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{46800AEB-89AF-4544-942D-4BC6AC1EEAA7}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="ventes">
   <location ref="B3:G10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -6043,6 +6556,103 @@
     <dataField name="Somme de Trimestre 4" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Somme de Total" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="13">
+    <format dxfId="37">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <chartFormats count="30">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -6665,24 +7275,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
     </row>
     <row r="3" spans="2:17" ht="3.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
@@ -6693,24 +7303,24 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="2:17" ht="3.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
@@ -7078,7 +7688,7 @@
     <mergeCell ref="B4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="C25:G25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7107,14 +7717,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="22" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -7466,15 +8076,15 @@
   <sheetData>
     <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="61" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="53" t="s">
@@ -7482,25 +8092,25 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="63"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="54" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="63"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="63"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="63"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="56" t="s">
         <v>27</v>
       </c>
@@ -7509,7 +8119,7 @@
       <c r="C9" s="52"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="61" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="53" t="s">
@@ -7517,19 +8127,19 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="63"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="63"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="63"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="57" t="s">
         <v>23</v>
       </c>
@@ -7548,10 +8158,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DC3222-9268-4458-8BD2-A01EEBC24E49}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7563,384 +8173,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B3" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="73" t="s">
         <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="69">
         <v>2337.81</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="69">
         <v>2137.81</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="69">
         <v>1237.81</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="69">
         <v>3237.81</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="70">
         <v>8951.24</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="69">
         <v>5215</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="69">
         <v>8309.0499999999993</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="69">
         <v>4287.9799999999996</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="69">
         <v>9352.64</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="70">
         <v>27164.67</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="69">
         <v>4336.37</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="69">
         <v>1790.84</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="69">
         <v>1206.77</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="69">
         <v>1628.13</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="70">
         <v>8962.11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="69">
         <v>1988.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="69">
         <v>2897.35</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="69">
         <v>5223.25</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="69">
         <v>7996.36</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="70">
         <v>18105.46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="69">
         <v>7832.97</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="69">
         <v>11299.87</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="69">
         <v>8264.81</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="69">
         <v>13226.47</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="70">
         <v>40624.120000000003</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="69">
         <v>21710.65</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="69">
         <v>26434.920000000002</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="69">
         <v>20220.620000000003</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="69">
         <v>35441.409999999996</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="70">
         <v>103807.6</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="66">
         <v>43421.3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="66">
         <v>52869.84</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="66">
         <v>40441.240000000005</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="66">
         <v>70882.819999999992</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="67">
         <v>207615.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B11" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>2533.2399999999998</v>
-      </c>
-      <c r="D12">
-        <v>5855.47</v>
-      </c>
-      <c r="E12">
-        <v>8525.14</v>
-      </c>
-      <c r="F12">
-        <v>11253.21</v>
-      </c>
-      <c r="G12">
-        <v>28167.059999999998</v>
+      <c r="B12" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B13" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>12462.87</v>
-      </c>
-      <c r="D13">
-        <v>8256.9699999999993</v>
-      </c>
-      <c r="E13">
-        <v>10884.65</v>
-      </c>
-      <c r="F13">
-        <v>18995.599999999999</v>
-      </c>
-      <c r="G13">
-        <v>50600.09</v>
+      <c r="B13" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="75">
+        <v>2533.2399999999998</v>
+      </c>
+      <c r="D13" s="75">
+        <v>5855.47</v>
+      </c>
+      <c r="E13" s="75">
+        <v>8525.14</v>
+      </c>
+      <c r="F13" s="75">
+        <v>11253.21</v>
+      </c>
+      <c r="G13" s="82">
+        <v>28167.059999999998</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B14" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>23751.35</v>
-      </c>
-      <c r="D14">
-        <v>21674.66</v>
-      </c>
-      <c r="E14">
-        <v>24631.350000000002</v>
-      </c>
-      <c r="F14">
-        <v>33505.279999999999</v>
-      </c>
-      <c r="G14">
-        <v>103562.64</v>
+      <c r="B14" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="75">
+        <v>12462.87</v>
+      </c>
+      <c r="D14" s="75">
+        <v>8256.9699999999993</v>
+      </c>
+      <c r="E14" s="75">
+        <v>10884.65</v>
+      </c>
+      <c r="F14" s="75">
+        <v>18995.599999999999</v>
+      </c>
+      <c r="G14" s="82">
+        <v>50600.09</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B15" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>8755.24</v>
-      </c>
-      <c r="D15">
-        <v>7562.22</v>
-      </c>
-      <c r="E15">
-        <v>5221.5600000000004</v>
-      </c>
-      <c r="F15">
-        <v>3256.47</v>
-      </c>
-      <c r="G15">
-        <v>24795.49</v>
+      <c r="B15" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="75">
+        <v>23751.35</v>
+      </c>
+      <c r="D15" s="75">
+        <v>21674.66</v>
+      </c>
+      <c r="E15" s="75">
+        <v>24631.350000000002</v>
+      </c>
+      <c r="F15" s="75">
+        <v>33505.279999999999</v>
+      </c>
+      <c r="G15" s="82">
+        <v>103562.64</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B16" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16">
-        <v>47502.7</v>
-      </c>
-      <c r="D16">
-        <v>43349.32</v>
-      </c>
-      <c r="E16">
-        <v>49262.7</v>
-      </c>
-      <c r="F16">
-        <v>67010.559999999998</v>
-      </c>
-      <c r="G16">
-        <v>207125.27999999997</v>
+      <c r="B16" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="75">
+        <v>8755.24</v>
+      </c>
+      <c r="D16" s="75">
+        <v>7562.22</v>
+      </c>
+      <c r="E16" s="75">
+        <v>5221.5600000000004</v>
+      </c>
+      <c r="F16" s="75">
+        <v>3256.47</v>
+      </c>
+      <c r="G16" s="82">
+        <v>24795.49</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>-2040.6999999999971</v>
-      </c>
-      <c r="D18">
-        <v>4760.260000000002</v>
-      </c>
-      <c r="E18">
-        <v>-4410.7299999999996</v>
-      </c>
-      <c r="F18">
-        <v>1936.1299999999974</v>
-      </c>
-      <c r="G18">
-        <v>244.96</v>
+      <c r="C17" s="80">
+        <v>47502.7</v>
+      </c>
+      <c r="D17" s="80">
+        <v>43349.32</v>
+      </c>
+      <c r="E17" s="80">
+        <v>49262.7</v>
+      </c>
+      <c r="F17" s="80">
+        <v>67010.559999999998</v>
+      </c>
+      <c r="G17" s="83">
+        <v>207125.27999999997</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C19">
+      <c r="D19" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="78">
         <v>-2040.6999999999971</v>
       </c>
-      <c r="D19">
+      <c r="D20" s="78">
         <v>4760.260000000002</v>
       </c>
-      <c r="E19">
+      <c r="E20" s="78">
         <v>-4410.7299999999996</v>
       </c>
-      <c r="F19">
+      <c r="F20" s="78">
         <v>1936.1299999999974</v>
       </c>
-      <c r="G19">
+      <c r="G20" s="87">
+        <v>244.96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="85">
+        <v>-2040.6999999999971</v>
+      </c>
+      <c r="D21" s="85">
+        <v>4760.260000000002</v>
+      </c>
+      <c r="E21" s="85">
+        <v>-4410.7299999999996</v>
+      </c>
+      <c r="F21" s="85">
+        <v>1936.1299999999974</v>
+      </c>
+      <c r="G21" s="88">
         <v>244.96</v>
       </c>
     </row>
